--- a/Study 3/Shocks/GCAM/NDC_EI - 2020.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2020.xlsx
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.01017637467591382</v>
+        <v>0.01017637467591381</v>
       </c>
     </row>
     <row r="6">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.07436350083042828</v>
+        <v>0.07436350083042827</v>
       </c>
     </row>
     <row r="22">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.006327867458709692</v>
+        <v>0.006327867458709691</v>
       </c>
     </row>
     <row r="30">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.000920305312259459</v>
+        <v>0.0009203053122594589</v>
       </c>
     </row>
     <row r="34">
@@ -12802,7 +12802,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.03347437471169605</v>
+        <v>0.03347437471169604</v>
       </c>
     </row>
     <row r="38">
